--- a/intra/OnlySalesLast.xlsx
+++ b/intra/OnlySalesLast.xlsx
@@ -626,7 +626,7 @@
         <v>6938942500095</v>
       </c>
       <c r="B24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" customHeight="1" ht="20">
@@ -3514,7 +3514,7 @@
         <v>8993176120059</v>
       </c>
       <c r="B385" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:2" customHeight="1" ht="20">
@@ -4610,7 +4610,7 @@
         <v>4902688320042</v>
       </c>
       <c r="B522" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:2" customHeight="1" ht="20">
